--- a/document/Buff及处理模块表.xlsx
+++ b/document/Buff及处理模块表.xlsx
@@ -14,8 +14,34 @@
 </workbook>
 </file>
 
+<file path=xl/comments1.xml><?xml version="1.0" encoding="utf-8"?>
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <authors>
+    <author>作者</author>
+  </authors>
+  <commentList>
+    <comment ref="B1" authorId="0" shapeId="0">
+      <text>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <charset val="134"/>
+          </rPr>
+          <t xml:space="preserve">命名规范：
+每个单词首字母大写
+某技能专用模块命名为：技能名字-模块名字
+</t>
+        </r>
+      </text>
+    </comment>
+  </commentList>
+</comments>
+</file>
+
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="69" uniqueCount="66">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="78" uniqueCount="75">
   <si>
     <t>ID（优先级）</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -79,12 +105,6 @@
     <t>DidStartSpellHandler;</t>
   </si>
   <si>
-    <t>WillSpellFinishHandler;</t>
-  </si>
-  <si>
-    <t>DidSpellFinishHandler;</t>
-  </si>
-  <si>
     <t>WillStartBattleHandler</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -137,124 +157,168 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
+    <t>施法完成</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>名字</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>触发逻辑</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ID</t>
+  </si>
+  <si>
+    <t>名字</t>
+  </si>
+  <si>
+    <t>描述</t>
+  </si>
+  <si>
+    <t>处理模块</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>是否显示</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>英文</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>英文</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Rush</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>冲锋</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>当前速度=最高速度</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>备注</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>在战斗开始的时候触发，立即将该单位的速度提至最高速度</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Grounded</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>禁锢</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>当前速度=0</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>禁止攻击</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>AttackDisable</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>取消攻击</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Giddy</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>晕眩</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>晕眩中的单位无法移动和攻击</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>是</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Grounded、AttackDisable</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>WillUpdateHandler;</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>DidUpdateHandler;</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>每帧开始</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>每帧结束</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>WillPrepareSpellHandler;</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>DidPrepareSpellHandler;</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>准备施法</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <t>开始施法</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>施法完成</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>名字</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>触发逻辑</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>ID</t>
-  </si>
-  <si>
-    <t>名字</t>
-  </si>
-  <si>
-    <t>描述</t>
-  </si>
-  <si>
-    <t>处理模块</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>是否显示</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>英文</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>英文</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Rush</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>冲锋</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>当前速度=最高速度</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>备注</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>在战斗开始的时候触发，立即将该单位的速度提至最高速度</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Grounded</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>禁锢</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>当前速度=0</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>禁止攻击</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>AttackDisable</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>取消攻击</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Giddy</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>晕眩</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>晕眩中的单位无法移动和攻击</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>是</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Grounded、AttackDisable</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>WillUpdateHandler;</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>DidUpdateHandler;</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>每帧开始</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>每帧结束</t>
+    <t>WillFinishSpellHandler;</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>DidFinishSpellHandler;</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>WillBreakSpellHandler;</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>DidBreakSpellHandler;</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>施法被打断</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>WillBeBreakSpellHandler;</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>DidBeBreakSpellHandler;</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>打断施法</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -262,7 +326,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -276,6 +340,12 @@
       <family val="3"/>
       <charset val="134"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <color indexed="81"/>
+      <name val="宋体"/>
+      <charset val="134"/>
     </font>
   </fonts>
   <fills count="2">
@@ -624,22 +694,22 @@
   <sheetData>
     <row r="1" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A1" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="E1" s="1" t="s">
         <v>39</v>
       </c>
-      <c r="B1" s="1" t="s">
-        <v>45</v>
-      </c>
-      <c r="C1" s="1" t="s">
+      <c r="F1" s="1" t="s">
         <v>40</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>41</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>42</v>
-      </c>
-      <c r="F1" s="1" t="s">
-        <v>43</v>
       </c>
     </row>
     <row r="2" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.15">
@@ -647,19 +717,19 @@
         <v>0</v>
       </c>
       <c r="B2" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="D2" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="E2" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="F2" s="1" t="s">
         <v>57</v>
-      </c>
-      <c r="C2" s="1" t="s">
-        <v>58</v>
-      </c>
-      <c r="D2" s="1" t="s">
-        <v>59</v>
-      </c>
-      <c r="E2" s="1" t="s">
-        <v>61</v>
-      </c>
-      <c r="F2" s="1" t="s">
-        <v>60</v>
       </c>
     </row>
     <row r="3" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.15">
@@ -865,11 +935,11 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:K65"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E5" sqref="E5"/>
+    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="F4" sqref="F4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="30" customHeight="1" x14ac:dyDescent="0.15"/>
@@ -883,7 +953,8 @@
     <col min="7" max="9" width="9" style="1"/>
     <col min="10" max="10" width="27.625" style="1" customWidth="1"/>
     <col min="11" max="11" width="17" style="1" customWidth="1"/>
-    <col min="12" max="16384" width="9" style="1"/>
+    <col min="12" max="12" width="17.5" style="1" customWidth="1"/>
+    <col min="13" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:11" ht="30" customHeight="1" x14ac:dyDescent="0.15">
@@ -891,25 +962,25 @@
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="D1" s="1" t="s">
         <v>1</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="J1" s="1" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="K1" s="1" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
     </row>
     <row r="2" spans="1:11" ht="30" customHeight="1" x14ac:dyDescent="0.15">
@@ -917,19 +988,19 @@
         <v>0</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="D2" s="1" t="s">
         <v>2</v>
       </c>
       <c r="E2" s="1" t="s">
-        <v>48</v>
+        <v>45</v>
       </c>
       <c r="F2" s="1" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="J2" s="1" t="s">
         <v>2</v>
@@ -940,22 +1011,22 @@
         <v>1</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>63</v>
+        <v>60</v>
       </c>
       <c r="E3" s="1" t="s">
-        <v>53</v>
+        <v>50</v>
       </c>
       <c r="J3" s="1" t="s">
         <v>3</v>
       </c>
       <c r="K3" s="1" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
     </row>
     <row r="4" spans="1:11" ht="30" customHeight="1" x14ac:dyDescent="0.15">
@@ -963,16 +1034,16 @@
         <v>2</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>54</v>
+        <v>51</v>
       </c>
       <c r="D4" s="1" t="s">
         <v>3</v>
       </c>
       <c r="E4" s="1" t="s">
-        <v>56</v>
+        <v>53</v>
       </c>
       <c r="J4" s="1" t="s">
         <v>4</v>
@@ -986,7 +1057,7 @@
         <v>5</v>
       </c>
       <c r="K5" s="1" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
     </row>
     <row r="6" spans="1:11" ht="30" customHeight="1" x14ac:dyDescent="0.15">
@@ -1005,7 +1076,7 @@
         <v>7</v>
       </c>
       <c r="K7" s="1" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
     </row>
     <row r="8" spans="1:11" ht="30" customHeight="1" x14ac:dyDescent="0.15">
@@ -1024,7 +1095,7 @@
         <v>9</v>
       </c>
       <c r="K9" s="1" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
     </row>
     <row r="10" spans="1:11" ht="30" customHeight="1" x14ac:dyDescent="0.15">
@@ -1043,7 +1114,7 @@
         <v>11</v>
       </c>
       <c r="K11" s="1" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
     </row>
     <row r="12" spans="1:11" ht="30" customHeight="1" x14ac:dyDescent="0.15">
@@ -1062,7 +1133,7 @@
         <v>13</v>
       </c>
       <c r="K13" s="1" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
     </row>
     <row r="14" spans="1:11" ht="30" customHeight="1" x14ac:dyDescent="0.15">
@@ -1078,10 +1149,10 @@
         <v>13</v>
       </c>
       <c r="J15" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="K15" s="1" t="s">
         <v>30</v>
-      </c>
-      <c r="K15" s="1" t="s">
-        <v>32</v>
       </c>
     </row>
     <row r="16" spans="1:11" ht="30" customHeight="1" x14ac:dyDescent="0.15">
@@ -1089,7 +1160,7 @@
         <v>14</v>
       </c>
       <c r="J16" s="1" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
     </row>
     <row r="17" spans="1:11" ht="30" customHeight="1" x14ac:dyDescent="0.15">
@@ -1100,7 +1171,7 @@
         <v>15</v>
       </c>
       <c r="K17" s="1" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
     </row>
     <row r="18" spans="1:11" ht="30" customHeight="1" x14ac:dyDescent="0.15">
@@ -1119,7 +1190,7 @@
         <v>17</v>
       </c>
       <c r="K19" s="1" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
     </row>
     <row r="20" spans="1:11" ht="30" customHeight="1" x14ac:dyDescent="0.15">
@@ -1127,10 +1198,10 @@
         <v>18</v>
       </c>
       <c r="J20" s="1" t="s">
-        <v>18</v>
+        <v>63</v>
       </c>
       <c r="K20" s="1" t="s">
-        <v>35</v>
+        <v>65</v>
       </c>
     </row>
     <row r="21" spans="1:11" ht="30" customHeight="1" x14ac:dyDescent="0.15">
@@ -1138,7 +1209,7 @@
         <v>19</v>
       </c>
       <c r="J21" s="1" t="s">
-        <v>19</v>
+        <v>64</v>
       </c>
     </row>
     <row r="22" spans="1:11" ht="30" customHeight="1" x14ac:dyDescent="0.15">
@@ -1146,10 +1217,10 @@
         <v>20</v>
       </c>
       <c r="J22" s="1" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="K22" s="1" t="s">
-        <v>36</v>
+        <v>66</v>
       </c>
     </row>
     <row r="23" spans="1:11" ht="30" customHeight="1" x14ac:dyDescent="0.15">
@@ -1157,7 +1228,7 @@
         <v>21</v>
       </c>
       <c r="J23" s="1" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
     </row>
     <row r="24" spans="1:11" ht="30" customHeight="1" x14ac:dyDescent="0.15">
@@ -1165,10 +1236,10 @@
         <v>22</v>
       </c>
       <c r="J24" s="1" t="s">
-        <v>62</v>
+        <v>67</v>
       </c>
       <c r="K24" s="1" t="s">
-        <v>64</v>
+        <v>33</v>
       </c>
     </row>
     <row r="25" spans="1:11" ht="30" customHeight="1" x14ac:dyDescent="0.15">
@@ -1176,40 +1247,67 @@
         <v>23</v>
       </c>
       <c r="J25" s="1" t="s">
-        <v>63</v>
-      </c>
-      <c r="K25" s="1" t="s">
-        <v>65</v>
+        <v>68</v>
       </c>
     </row>
     <row r="26" spans="1:11" ht="30" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A26" s="1">
         <v>24</v>
       </c>
+      <c r="J26" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="K26" s="1" t="s">
+        <v>74</v>
+      </c>
     </row>
     <row r="27" spans="1:11" ht="30" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A27" s="1">
         <v>25</v>
       </c>
+      <c r="J27" s="1" t="s">
+        <v>70</v>
+      </c>
     </row>
     <row r="28" spans="1:11" ht="30" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A28" s="1">
         <v>26</v>
       </c>
+      <c r="J28" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="K28" s="1" t="s">
+        <v>71</v>
+      </c>
     </row>
     <row r="29" spans="1:11" ht="30" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A29" s="1">
         <v>27</v>
       </c>
+      <c r="J29" s="1" t="s">
+        <v>73</v>
+      </c>
     </row>
     <row r="30" spans="1:11" ht="30" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A30" s="1">
         <v>28</v>
       </c>
+      <c r="J30" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="K30" s="1" t="s">
+        <v>61</v>
+      </c>
     </row>
     <row r="31" spans="1:11" ht="30" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A31" s="1">
         <v>29</v>
+      </c>
+      <c r="J31" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="K31" s="1" t="s">
+        <v>62</v>
       </c>
     </row>
     <row r="32" spans="1:11" ht="30" customHeight="1" x14ac:dyDescent="0.15">
@@ -1386,10 +1484,11 @@
   <phoneticPr fontId="1" type="noConversion"/>
   <dataValidations count="1">
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D1:D1048576">
-      <formula1>$J$1:$J$25</formula1>
+      <formula1>$J$1:$J$31</formula1>
     </dataValidation>
   </dataValidations>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" verticalDpi="0" r:id="rId1"/>
+  <legacyDrawing r:id="rId2"/>
 </worksheet>
 </file>